--- a/Data/Input/InputMaster.xlsx
+++ b/Data/Input/InputMaster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad2\Desktop\GT_Order_11 process_InputTracker\GT_Order_Process\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT_Order_11 process_InputTracker\GT_Order_Process\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ProcessId</t>
   </si>
@@ -41,29 +41,17 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Process Data</t>
-  </si>
-  <si>
-    <t>Download Report</t>
-  </si>
-  <si>
-    <t>Retrieve PDP Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minet Order Report processing </t>
-  </si>
-  <si>
-    <t>Credit Report Processing</t>
-  </si>
-  <si>
-    <t>Credit Balance.xlsx</t>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>Sales order creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,15 +73,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,13 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -195,19 +170,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -215,12 +180,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -533,46 +494,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
